--- a/BotTagProducts/referencias FF.xlsx
+++ b/BotTagProducts/referencias FF.xlsx
@@ -1,16 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFC1E6B-8564-4A63-BAA9-A8AD44EFF11A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4B8828-7AEC-4F6F-8E83-414BD3D09730}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3_Level" sheetId="1" r:id="rId1"/>
     <sheet name="4_Level" sheetId="2" r:id="rId2"/>
-    <sheet name="Single_level" sheetId="3" r:id="rId3"/>
+    <sheet name="cuts" sheetId="4" r:id="rId3"/>
+    <sheet name="4nivelesSP2019" sheetId="6" r:id="rId4"/>
+    <sheet name="3nivelesSP2019" sheetId="9" r:id="rId5"/>
+    <sheet name="3nivelesSP2019yaprocesado" sheetId="11" r:id="rId6"/>
+    <sheet name="Hoja6" sheetId="10" r:id="rId7"/>
+    <sheet name="4nivelesSP2019_OKENG" sheetId="8" r:id="rId8"/>
+    <sheet name="4nivelesSP2019_ERRROR" sheetId="7" r:id="rId9"/>
+    <sheet name="Hoja2" sheetId="5" r:id="rId10"/>
+    <sheet name="Single_level" sheetId="3" r:id="rId11"/>
+    <sheet name="TrunksSP2019" sheetId="12" r:id="rId12"/>
+    <sheet name="ActiveSP2019" sheetId="13" r:id="rId13"/>
+    <sheet name="ActiveSP2019YaProcesado" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="1118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="1779">
   <si>
     <t>1038tsl01</t>
   </si>
@@ -3376,13 +3387,1996 @@
   </si>
   <si>
     <t>4020xvr03_rosado_os</t>
+  </si>
+  <si>
+    <t>2047sbc02</t>
+  </si>
+  <si>
+    <t>2047sbc04</t>
+  </si>
+  <si>
+    <t>2047sbc05</t>
+  </si>
+  <si>
+    <t>2047scc05</t>
+  </si>
+  <si>
+    <t>2061sbc02</t>
+  </si>
+  <si>
+    <t>2061sbc04</t>
+  </si>
+  <si>
+    <t>2061sbc05</t>
+  </si>
+  <si>
+    <t>2061sbc08</t>
+  </si>
+  <si>
+    <t>2061sbc10</t>
+  </si>
+  <si>
+    <t>2061sbc12</t>
+  </si>
+  <si>
+    <t>2061sbc505</t>
+  </si>
+  <si>
+    <t>2061scc02</t>
+  </si>
+  <si>
+    <t>2061scc04</t>
+  </si>
+  <si>
+    <t>2061scc08</t>
+  </si>
+  <si>
+    <t>2061scc12</t>
+  </si>
+  <si>
+    <t>2061scc502</t>
+  </si>
+  <si>
+    <t>2061sdc05</t>
+  </si>
+  <si>
+    <t>2061sdc10</t>
+  </si>
+  <si>
+    <t>2062sbc02</t>
+  </si>
+  <si>
+    <t>2062sbc07</t>
+  </si>
+  <si>
+    <t>2062sbc09</t>
+  </si>
+  <si>
+    <t>2062sbc10</t>
+  </si>
+  <si>
+    <t>2062sbc11</t>
+  </si>
+  <si>
+    <t>2062sbc13</t>
+  </si>
+  <si>
+    <t>2062sbc14</t>
+  </si>
+  <si>
+    <t>2062sbc15</t>
+  </si>
+  <si>
+    <t>2062scc11</t>
+  </si>
+  <si>
+    <t>2062scc13</t>
+  </si>
+  <si>
+    <t>2062scc502</t>
+  </si>
+  <si>
+    <t>2062sdc02</t>
+  </si>
+  <si>
+    <t>2062sdc07</t>
+  </si>
+  <si>
+    <t>2062sdc10</t>
+  </si>
+  <si>
+    <t>2062sdc14</t>
+  </si>
+  <si>
+    <t>2062sdc15</t>
+  </si>
+  <si>
+    <t>2110sac05</t>
+  </si>
+  <si>
+    <t>2110sbc01</t>
+  </si>
+  <si>
+    <t>2110sbc03</t>
+  </si>
+  <si>
+    <t>2110sbc04</t>
+  </si>
+  <si>
+    <t>2110sbc05</t>
+  </si>
+  <si>
+    <t>2110sbc06</t>
+  </si>
+  <si>
+    <t>2110sbc07</t>
+  </si>
+  <si>
+    <t>2110sbc08</t>
+  </si>
+  <si>
+    <t>2110scc07</t>
+  </si>
+  <si>
+    <t>2110scc08</t>
+  </si>
+  <si>
+    <t>2110sdc01</t>
+  </si>
+  <si>
+    <t>2110sdc03</t>
+  </si>
+  <si>
+    <t>2110sdc04</t>
+  </si>
+  <si>
+    <t>2110sdc06</t>
+  </si>
+  <si>
+    <t>2111sob01</t>
+  </si>
+  <si>
+    <t>2111soc01</t>
+  </si>
+  <si>
+    <t>2114sac02</t>
+  </si>
+  <si>
+    <t>2114sac03</t>
+  </si>
+  <si>
+    <t>2114sbc01</t>
+  </si>
+  <si>
+    <t>2114sbc02</t>
+  </si>
+  <si>
+    <t>2114sbc03</t>
+  </si>
+  <si>
+    <t>2114scc01</t>
+  </si>
+  <si>
+    <t>2116sbc01</t>
+  </si>
+  <si>
+    <t>2116sbc02</t>
+  </si>
+  <si>
+    <t>2116sbc03</t>
+  </si>
+  <si>
+    <t>2116sdc01</t>
+  </si>
+  <si>
+    <t>2116sdc02</t>
+  </si>
+  <si>
+    <t>2116sdc03</t>
+  </si>
+  <si>
+    <t>2119soh02</t>
+  </si>
+  <si>
+    <t>2119soh03</t>
+  </si>
+  <si>
+    <t>2119sor02</t>
+  </si>
+  <si>
+    <t>2119sor03</t>
+  </si>
+  <si>
+    <t>2120sac01</t>
+  </si>
+  <si>
+    <t>2120sac02</t>
+  </si>
+  <si>
+    <t>2120sbc01</t>
+  </si>
+  <si>
+    <t>2120sbc02</t>
+  </si>
+  <si>
+    <t>2122sob01</t>
+  </si>
+  <si>
+    <t>2122sob02</t>
+  </si>
+  <si>
+    <t>2122soc01</t>
+  </si>
+  <si>
+    <t>2122soc02</t>
+  </si>
+  <si>
+    <t>2126sbc01</t>
+  </si>
+  <si>
+    <t>2126sdc01</t>
+  </si>
+  <si>
+    <t>2130sbc02</t>
+  </si>
+  <si>
+    <t>2130scc01</t>
+  </si>
+  <si>
+    <t>2130scc02</t>
+  </si>
+  <si>
+    <t>2132soh02</t>
+  </si>
+  <si>
+    <t>2132sor02</t>
+  </si>
+  <si>
+    <t>2135ssf03</t>
+  </si>
+  <si>
+    <t>2140soh01</t>
+  </si>
+  <si>
+    <t>2140sor01</t>
+  </si>
+  <si>
+    <t>2144sbc02</t>
+  </si>
+  <si>
+    <t>2144scc02</t>
+  </si>
+  <si>
+    <t>2159soh01</t>
+  </si>
+  <si>
+    <t>2159sor01</t>
+  </si>
+  <si>
+    <t>2162sbc01</t>
+  </si>
+  <si>
+    <t>2162scc01</t>
+  </si>
+  <si>
+    <t>2165sbc01</t>
+  </si>
+  <si>
+    <t>2165scc01</t>
+  </si>
+  <si>
+    <t>2166soh01</t>
+  </si>
+  <si>
+    <t>2168sbc01</t>
+  </si>
+  <si>
+    <t>2172sbc01</t>
+  </si>
+  <si>
+    <t>2172sdc01</t>
+  </si>
+  <si>
+    <t>2187sbc01</t>
+  </si>
+  <si>
+    <t>2187sdc01</t>
+  </si>
+  <si>
+    <t>2187ssf01</t>
+  </si>
+  <si>
+    <t>2188sbc01</t>
+  </si>
+  <si>
+    <t>2188scc01</t>
+  </si>
+  <si>
+    <t>2194sbc01</t>
+  </si>
+  <si>
+    <t>2194sdc01</t>
+  </si>
+  <si>
+    <t>2200sbc01</t>
+  </si>
+  <si>
+    <t>2200sbc02</t>
+  </si>
+  <si>
+    <t>2200sdc02</t>
+  </si>
+  <si>
+    <t>2201sac01</t>
+  </si>
+  <si>
+    <t>2201sbc01</t>
+  </si>
+  <si>
+    <t>2209sbc02</t>
+  </si>
+  <si>
+    <t>2209sdc02</t>
+  </si>
+  <si>
+    <t>2211soh01</t>
+  </si>
+  <si>
+    <t>2211sor01</t>
+  </si>
+  <si>
+    <t>2216sbc01</t>
+  </si>
+  <si>
+    <t>2216sbc02</t>
+  </si>
+  <si>
+    <t>2216scc01</t>
+  </si>
+  <si>
+    <t>2216scc02</t>
+  </si>
+  <si>
+    <t>2219sbc01</t>
+  </si>
+  <si>
+    <t>2219scc01</t>
+  </si>
+  <si>
+    <t>2221sob01</t>
+  </si>
+  <si>
+    <t>2221soc01</t>
+  </si>
+  <si>
+    <t>2223soh01</t>
+  </si>
+  <si>
+    <t>2223sor01</t>
+  </si>
+  <si>
+    <t>2226sac01</t>
+  </si>
+  <si>
+    <t>2226sbc01</t>
+  </si>
+  <si>
+    <t>2228sbc01</t>
+  </si>
+  <si>
+    <t>2228sbc500</t>
+  </si>
+  <si>
+    <t>2228scc01</t>
+  </si>
+  <si>
+    <t>2230sob01</t>
+  </si>
+  <si>
+    <t>2230soc01</t>
+  </si>
+  <si>
+    <t>2237sbc01</t>
+  </si>
+  <si>
+    <t>2237scc01</t>
+  </si>
+  <si>
+    <t>2240sbc01</t>
+  </si>
+  <si>
+    <t>2240scc01</t>
+  </si>
+  <si>
+    <t>2243sbc01</t>
+  </si>
+  <si>
+    <t>2243scc01</t>
+  </si>
+  <si>
+    <t>2261soh500</t>
+  </si>
+  <si>
+    <t>2261sor500</t>
+  </si>
+  <si>
+    <t>2263sbc500</t>
+  </si>
+  <si>
+    <t>2263sdc500</t>
+  </si>
+  <si>
+    <t>2286sbc500</t>
+  </si>
+  <si>
+    <t>2288sbc500</t>
+  </si>
+  <si>
+    <t>3007sac03</t>
+  </si>
+  <si>
+    <t>3007sac04</t>
+  </si>
+  <si>
+    <t>3007sac06</t>
+  </si>
+  <si>
+    <t>3007sac08</t>
+  </si>
+  <si>
+    <t>3007sac11</t>
+  </si>
+  <si>
+    <t>3007sac12</t>
+  </si>
+  <si>
+    <t>3007sac14</t>
+  </si>
+  <si>
+    <t>3007sac15</t>
+  </si>
+  <si>
+    <t>3007sac16</t>
+  </si>
+  <si>
+    <t>3007sac17</t>
+  </si>
+  <si>
+    <t>3007sac18</t>
+  </si>
+  <si>
+    <t>3007sac19</t>
+  </si>
+  <si>
+    <t>3007sac20</t>
+  </si>
+  <si>
+    <t>3007sac22</t>
+  </si>
+  <si>
+    <t>3007sac23</t>
+  </si>
+  <si>
+    <t>3007sac24</t>
+  </si>
+  <si>
+    <t>3007sac25</t>
+  </si>
+  <si>
+    <t>3007sac26</t>
+  </si>
+  <si>
+    <t>3007sac27</t>
+  </si>
+  <si>
+    <t>3007sac28</t>
+  </si>
+  <si>
+    <t>3007sac29</t>
+  </si>
+  <si>
+    <t>3007sac33</t>
+  </si>
+  <si>
+    <t>3007sac34</t>
+  </si>
+  <si>
+    <t>3007sbc03</t>
+  </si>
+  <si>
+    <t>3007sbc04</t>
+  </si>
+  <si>
+    <t>3007sbc05</t>
+  </si>
+  <si>
+    <t>3007sbc06</t>
+  </si>
+  <si>
+    <t>3007sbc08</t>
+  </si>
+  <si>
+    <t>3007sbc11</t>
+  </si>
+  <si>
+    <t>3007sbc12</t>
+  </si>
+  <si>
+    <t>3007sbc14</t>
+  </si>
+  <si>
+    <t>3007sbc15</t>
+  </si>
+  <si>
+    <t>3007sbc16</t>
+  </si>
+  <si>
+    <t>3007sbc17</t>
+  </si>
+  <si>
+    <t>3007sbc18</t>
+  </si>
+  <si>
+    <t>3007sbc20</t>
+  </si>
+  <si>
+    <t>3007sbc22</t>
+  </si>
+  <si>
+    <t>3007sbc23</t>
+  </si>
+  <si>
+    <t>3007sbc24</t>
+  </si>
+  <si>
+    <t>3007sbc25</t>
+  </si>
+  <si>
+    <t>3007sbc26</t>
+  </si>
+  <si>
+    <t>3007sbc27</t>
+  </si>
+  <si>
+    <t>3007sbc28</t>
+  </si>
+  <si>
+    <t>3007sbc29</t>
+  </si>
+  <si>
+    <t>3007sbc33</t>
+  </si>
+  <si>
+    <t>3007sbc34</t>
+  </si>
+  <si>
+    <t>3007scc03</t>
+  </si>
+  <si>
+    <t>3007scc04</t>
+  </si>
+  <si>
+    <t>3007scc05</t>
+  </si>
+  <si>
+    <t>3007scc06</t>
+  </si>
+  <si>
+    <t>3007scc08</t>
+  </si>
+  <si>
+    <t>3007scc11</t>
+  </si>
+  <si>
+    <t>3007scc12</t>
+  </si>
+  <si>
+    <t>3007scc14</t>
+  </si>
+  <si>
+    <t>3007scc15</t>
+  </si>
+  <si>
+    <t>3007scc16</t>
+  </si>
+  <si>
+    <t>3007scc17</t>
+  </si>
+  <si>
+    <t>3007scc18</t>
+  </si>
+  <si>
+    <t>3007scc19</t>
+  </si>
+  <si>
+    <t>3007scc20</t>
+  </si>
+  <si>
+    <t>3007scc22</t>
+  </si>
+  <si>
+    <t>3007scc23</t>
+  </si>
+  <si>
+    <t>3007scc24</t>
+  </si>
+  <si>
+    <t>3007scc25</t>
+  </si>
+  <si>
+    <t>3007scc26</t>
+  </si>
+  <si>
+    <t>3007scc27</t>
+  </si>
+  <si>
+    <t>3007scc28</t>
+  </si>
+  <si>
+    <t>3007scc29</t>
+  </si>
+  <si>
+    <t>3007scc33</t>
+  </si>
+  <si>
+    <t>3007scc34</t>
+  </si>
+  <si>
+    <t>3007sdc03</t>
+  </si>
+  <si>
+    <t>3007sdc04</t>
+  </si>
+  <si>
+    <t>3007sdc06</t>
+  </si>
+  <si>
+    <t>3007sdc08</t>
+  </si>
+  <si>
+    <t>3007sdc11</t>
+  </si>
+  <si>
+    <t>3007sdc12</t>
+  </si>
+  <si>
+    <t>3007sdc14</t>
+  </si>
+  <si>
+    <t>3007sdc15</t>
+  </si>
+  <si>
+    <t>3007sdc16</t>
+  </si>
+  <si>
+    <t>3007sdc17</t>
+  </si>
+  <si>
+    <t>3007sdc18</t>
+  </si>
+  <si>
+    <t>3007sdc19</t>
+  </si>
+  <si>
+    <t>3007sdc20</t>
+  </si>
+  <si>
+    <t>3007sdc22</t>
+  </si>
+  <si>
+    <t>3007sdc23</t>
+  </si>
+  <si>
+    <t>3007sdc25</t>
+  </si>
+  <si>
+    <t>3007sdc26</t>
+  </si>
+  <si>
+    <t>3007sdc27</t>
+  </si>
+  <si>
+    <t>3007sdc28</t>
+  </si>
+  <si>
+    <t>3007sdc29</t>
+  </si>
+  <si>
+    <t>3007sdc33</t>
+  </si>
+  <si>
+    <t>3007sdc34</t>
+  </si>
+  <si>
+    <t>3008scc01</t>
+  </si>
+  <si>
+    <t>3008scc02</t>
+  </si>
+  <si>
+    <t>3008scc03</t>
+  </si>
+  <si>
+    <t>3008scc04</t>
+  </si>
+  <si>
+    <t>3013sbc02</t>
+  </si>
+  <si>
+    <t>3013sbc03</t>
+  </si>
+  <si>
+    <t>3013sbc04</t>
+  </si>
+  <si>
+    <t>3013scc03</t>
+  </si>
+  <si>
+    <t>3013scc04</t>
+  </si>
+  <si>
+    <t>3039sbc02</t>
+  </si>
+  <si>
+    <t>3039sbc03</t>
+  </si>
+  <si>
+    <t>3039sbc04</t>
+  </si>
+  <si>
+    <t>3039sbc05</t>
+  </si>
+  <si>
+    <t>3039sbc06</t>
+  </si>
+  <si>
+    <t>3039sbc07</t>
+  </si>
+  <si>
+    <t>3039sbc08</t>
+  </si>
+  <si>
+    <t>3039sbc500</t>
+  </si>
+  <si>
+    <t>3039sbc501</t>
+  </si>
+  <si>
+    <t>3039scc03</t>
+  </si>
+  <si>
+    <t>3039scc04</t>
+  </si>
+  <si>
+    <t>3039scc05</t>
+  </si>
+  <si>
+    <t>3039scc06</t>
+  </si>
+  <si>
+    <t>3039scc07</t>
+  </si>
+  <si>
+    <t>3039scc500</t>
+  </si>
+  <si>
+    <t>3039sdc02</t>
+  </si>
+  <si>
+    <t>3039sdc04</t>
+  </si>
+  <si>
+    <t>3039sdc06</t>
+  </si>
+  <si>
+    <t>3039sdc07</t>
+  </si>
+  <si>
+    <t>3039sdc08</t>
+  </si>
+  <si>
+    <t>3044sbc01</t>
+  </si>
+  <si>
+    <t>3044sbc02</t>
+  </si>
+  <si>
+    <t>3044sbc04</t>
+  </si>
+  <si>
+    <t>3044scc01</t>
+  </si>
+  <si>
+    <t>3044scc02</t>
+  </si>
+  <si>
+    <t>3044scc04</t>
+  </si>
+  <si>
+    <t>3050soh01</t>
+  </si>
+  <si>
+    <t>3052sbc01</t>
+  </si>
+  <si>
+    <t>3052sbc03</t>
+  </si>
+  <si>
+    <t>3052sdc01</t>
+  </si>
+  <si>
+    <t>3052sdc03</t>
+  </si>
+  <si>
+    <t>3067soh01</t>
+  </si>
+  <si>
+    <t>3072sbc07</t>
+  </si>
+  <si>
+    <t>3072scc07</t>
+  </si>
+  <si>
+    <t>3075scc01</t>
+  </si>
+  <si>
+    <t>3075scc02</t>
+  </si>
+  <si>
+    <t>3076sbc01</t>
+  </si>
+  <si>
+    <t>3076sbc02</t>
+  </si>
+  <si>
+    <t>3076scc01</t>
+  </si>
+  <si>
+    <t>3076scc02</t>
+  </si>
+  <si>
+    <t>3079sbc01</t>
+  </si>
+  <si>
+    <t>3079sbc03</t>
+  </si>
+  <si>
+    <t>3079sdc01</t>
+  </si>
+  <si>
+    <t>3079sdc03</t>
+  </si>
+  <si>
+    <t>3081soh01</t>
+  </si>
+  <si>
+    <t>3083sac01</t>
+  </si>
+  <si>
+    <t>3083sbc01</t>
+  </si>
+  <si>
+    <t>3083scc01</t>
+  </si>
+  <si>
+    <t>3083sdc01</t>
+  </si>
+  <si>
+    <t>3096scc500</t>
+  </si>
+  <si>
+    <t>3097sor500</t>
+  </si>
+  <si>
+    <t>3007SAC24</t>
+  </si>
+  <si>
+    <t>3007SBC24</t>
+  </si>
+  <si>
+    <t>3007SCC24</t>
+  </si>
+  <si>
+    <t>3007SDC24</t>
+  </si>
+  <si>
+    <t>3075SCC01</t>
+  </si>
+  <si>
+    <t>3007SAC25</t>
+  </si>
+  <si>
+    <t>3007SBC25</t>
+  </si>
+  <si>
+    <t>3007SCC25</t>
+  </si>
+  <si>
+    <t>3007SDC25</t>
+  </si>
+  <si>
+    <t>3050SOR02</t>
+  </si>
+  <si>
+    <t>3050SOH02</t>
+  </si>
+  <si>
+    <t>3076SBC01</t>
+  </si>
+  <si>
+    <t>3076SCC01</t>
+  </si>
+  <si>
+    <t>2061SBC06</t>
+  </si>
+  <si>
+    <t>2061SDC06</t>
+  </si>
+  <si>
+    <t>2062SBC14</t>
+  </si>
+  <si>
+    <t>2062SDC14</t>
+  </si>
+  <si>
+    <t>2211SOR01</t>
+  </si>
+  <si>
+    <t>2211SOH01</t>
+  </si>
+  <si>
+    <t>2200SBC01</t>
+  </si>
+  <si>
+    <t>2201SAC01</t>
+  </si>
+  <si>
+    <t>2201SBC01</t>
+  </si>
+  <si>
+    <t>2111SOB02</t>
+  </si>
+  <si>
+    <t>2111SOC02</t>
+  </si>
+  <si>
+    <t>2061SBC09</t>
+  </si>
+  <si>
+    <t>2061SCC09</t>
+  </si>
+  <si>
+    <t>2203SAC01</t>
+  </si>
+  <si>
+    <t>2203SBC01</t>
+  </si>
+  <si>
+    <t>2110SBC07</t>
+  </si>
+  <si>
+    <t>2110SCC07</t>
+  </si>
+  <si>
+    <t>3008SCC03</t>
+  </si>
+  <si>
+    <t>3007SAC26</t>
+  </si>
+  <si>
+    <t>3007SBC26</t>
+  </si>
+  <si>
+    <t>3007SCC26</t>
+  </si>
+  <si>
+    <t>3007SDC26</t>
+  </si>
+  <si>
+    <t>3079SBC01</t>
+  </si>
+  <si>
+    <t>3079SDC01</t>
+  </si>
+  <si>
+    <t>3007SAC27</t>
+  </si>
+  <si>
+    <t>3007SBC27</t>
+  </si>
+  <si>
+    <t>3007SCC27</t>
+  </si>
+  <si>
+    <t>3007SDC27</t>
+  </si>
+  <si>
+    <t>2024SAC07</t>
+  </si>
+  <si>
+    <t>2024SBC07</t>
+  </si>
+  <si>
+    <t>2205SOH01</t>
+  </si>
+  <si>
+    <t>2061SBC07</t>
+  </si>
+  <si>
+    <t>2061SDC07</t>
+  </si>
+  <si>
+    <t>2062SBC15</t>
+  </si>
+  <si>
+    <t>2062SDC15</t>
+  </si>
+  <si>
+    <t>2043SBC11</t>
+  </si>
+  <si>
+    <t>2043SCC11</t>
+  </si>
+  <si>
+    <t>2209SAC01</t>
+  </si>
+  <si>
+    <t>2209SBC01</t>
+  </si>
+  <si>
+    <t>2061SBC08</t>
+  </si>
+  <si>
+    <t>2061SCC08</t>
+  </si>
+  <si>
+    <t>2216SBC01</t>
+  </si>
+  <si>
+    <t>2216SCC01</t>
+  </si>
+  <si>
+    <t>3007SAC28</t>
+  </si>
+  <si>
+    <t>3007SBC28</t>
+  </si>
+  <si>
+    <t>3007SCC28</t>
+  </si>
+  <si>
+    <t>3007SDC28</t>
+  </si>
+  <si>
+    <t>3075SCC02</t>
+  </si>
+  <si>
+    <t>3081SOH01</t>
+  </si>
+  <si>
+    <t>3007SAC29</t>
+  </si>
+  <si>
+    <t>3007SBC29</t>
+  </si>
+  <si>
+    <t>3007SCC29</t>
+  </si>
+  <si>
+    <t>3007SDC29</t>
+  </si>
+  <si>
+    <t>3039SBC07</t>
+  </si>
+  <si>
+    <t>3039SCC07</t>
+  </si>
+  <si>
+    <t>3039SDC07</t>
+  </si>
+  <si>
+    <t>2200SBC02</t>
+  </si>
+  <si>
+    <t>2200SDC02</t>
+  </si>
+  <si>
+    <t>2024SBC10</t>
+  </si>
+  <si>
+    <t>2024SCC10</t>
+  </si>
+  <si>
+    <t>2110SAC05</t>
+  </si>
+  <si>
+    <t>2110SBC05</t>
+  </si>
+  <si>
+    <t>2219SBC01</t>
+  </si>
+  <si>
+    <t>2219SCC01</t>
+  </si>
+  <si>
+    <t>2061SBC10</t>
+  </si>
+  <si>
+    <t>2061SDC10</t>
+  </si>
+  <si>
+    <t>2043SAC14</t>
+  </si>
+  <si>
+    <t>2043SBC14</t>
+  </si>
+  <si>
+    <t>2237SBC01</t>
+  </si>
+  <si>
+    <t>2237SCC01</t>
+  </si>
+  <si>
+    <t>2132SOR02</t>
+  </si>
+  <si>
+    <t>2132SOH02</t>
+  </si>
+  <si>
+    <t>2221SOB01</t>
+  </si>
+  <si>
+    <t>2221SOC01</t>
+  </si>
+  <si>
+    <t>3007SAC30</t>
+  </si>
+  <si>
+    <t>3007SBC30</t>
+  </si>
+  <si>
+    <t>3007SCC30</t>
+  </si>
+  <si>
+    <t>3007SDC30</t>
+  </si>
+  <si>
+    <t>3076SBC02</t>
+  </si>
+  <si>
+    <t>3076SCC02</t>
+  </si>
+  <si>
+    <t>3083SAC01</t>
+  </si>
+  <si>
+    <t>3083SBC01</t>
+  </si>
+  <si>
+    <t>3083SCC01</t>
+  </si>
+  <si>
+    <t>3083SDC01</t>
+  </si>
+  <si>
+    <t>3039SBC08</t>
+  </si>
+  <si>
+    <t>3039SDC08</t>
+  </si>
+  <si>
+    <t>2110SBC06</t>
+  </si>
+  <si>
+    <t>2110SDC06</t>
+  </si>
+  <si>
+    <t>2223SOR01</t>
+  </si>
+  <si>
+    <t>2223SOH01</t>
+  </si>
+  <si>
+    <t>2043SBC12</t>
+  </si>
+  <si>
+    <t>2043SCC12</t>
+  </si>
+  <si>
+    <t>2043SAC13</t>
+  </si>
+  <si>
+    <t>2043SBC13</t>
+  </si>
+  <si>
+    <t>2209SBC02</t>
+  </si>
+  <si>
+    <t>2209SDC02</t>
+  </si>
+  <si>
+    <t>2226SAC01</t>
+  </si>
+  <si>
+    <t>2226SBC01</t>
+  </si>
+  <si>
+    <t>2228SBC01</t>
+  </si>
+  <si>
+    <t>2228SCC01</t>
+  </si>
+  <si>
+    <t>2230SOB01</t>
+  </si>
+  <si>
+    <t>2230SOC01</t>
+  </si>
+  <si>
+    <t>2216SBC02</t>
+  </si>
+  <si>
+    <t>2216SCC02</t>
+  </si>
+  <si>
+    <t>3007SAC33</t>
+  </si>
+  <si>
+    <t>3007SBC33</t>
+  </si>
+  <si>
+    <t>3007SCC33</t>
+  </si>
+  <si>
+    <t>3007SDC33</t>
+  </si>
+  <si>
+    <t>3079SBC03</t>
+  </si>
+  <si>
+    <t>3079SDC03</t>
+  </si>
+  <si>
+    <t>3007SAC34</t>
+  </si>
+  <si>
+    <t>3007SBC34</t>
+  </si>
+  <si>
+    <t>3007SCC34</t>
+  </si>
+  <si>
+    <t>3007SDC34</t>
+  </si>
+  <si>
+    <t>3008SCC04</t>
+  </si>
+  <si>
+    <t>2116SBC05</t>
+  </si>
+  <si>
+    <t>2116SDC05</t>
+  </si>
+  <si>
+    <t>2024SAC11</t>
+  </si>
+  <si>
+    <t>2024SBC11</t>
+  </si>
+  <si>
+    <t>2240SBC01</t>
+  </si>
+  <si>
+    <t>2240SCC01</t>
+  </si>
+  <si>
+    <t>2242SBC01</t>
+  </si>
+  <si>
+    <t>2242SCC01</t>
+  </si>
+  <si>
+    <t>2243SBC01</t>
+  </si>
+  <si>
+    <t>2243SCC01</t>
+  </si>
+  <si>
+    <t>2024SAC12</t>
+  </si>
+  <si>
+    <t>2024SBC12</t>
+  </si>
+  <si>
+    <t>2061SBC12</t>
+  </si>
+  <si>
+    <t>2061SCC12</t>
+  </si>
+  <si>
+    <t>2110SBC08</t>
+  </si>
+  <si>
+    <t>2110SCC08</t>
+  </si>
+  <si>
+    <t>3007SAC31</t>
+  </si>
+  <si>
+    <t>3007SBC31</t>
+  </si>
+  <si>
+    <t>3007SCC31</t>
+  </si>
+  <si>
+    <t>3007SDC31</t>
+  </si>
+  <si>
+    <t>3079SBC02</t>
+  </si>
+  <si>
+    <t>3079SDC02</t>
+  </si>
+  <si>
+    <t>3007SAC32</t>
+  </si>
+  <si>
+    <t>3007SBC32</t>
+  </si>
+  <si>
+    <t>3007SCC32</t>
+  </si>
+  <si>
+    <t>3007SDC32</t>
+  </si>
+  <si>
+    <t>3086SBC01</t>
+  </si>
+  <si>
+    <t>3086SCC01</t>
+  </si>
+  <si>
+    <t>2130SBC03</t>
+  </si>
+  <si>
+    <t>2130SCC03</t>
+  </si>
+  <si>
+    <t>2024SAC09</t>
+  </si>
+  <si>
+    <t>2024SBC09</t>
+  </si>
+  <si>
+    <t>2116SBC04</t>
+  </si>
+  <si>
+    <t>2116SDC04</t>
+  </si>
+  <si>
+    <t>2061SBC11</t>
+  </si>
+  <si>
+    <t>2061SDC11</t>
+  </si>
+  <si>
+    <t>2234SBC01</t>
+  </si>
+  <si>
+    <t>2234SCC01</t>
+  </si>
+  <si>
+    <t>2062SAC16</t>
+  </si>
+  <si>
+    <t>2062SBC16</t>
+  </si>
+  <si>
+    <t>2235SOR01</t>
+  </si>
+  <si>
+    <t>2235SOH01</t>
+  </si>
+  <si>
+    <t>2219SBC02</t>
+  </si>
+  <si>
+    <t>2219SCC02</t>
+  </si>
+  <si>
+    <t>Toma la clase size y no color</t>
+  </si>
+  <si>
+    <t>3061SSP03</t>
+  </si>
+  <si>
+    <t>1520SFH04</t>
+  </si>
+  <si>
+    <t>3073SBA01</t>
+  </si>
+  <si>
+    <t>3054SFA04</t>
+  </si>
+  <si>
+    <t>3074SSE01</t>
+  </si>
+  <si>
+    <t>2197SLT01</t>
+  </si>
+  <si>
+    <t>2198SBR01</t>
+  </si>
+  <si>
+    <t>2199SFA01</t>
+  </si>
+  <si>
+    <t>2131SUN04</t>
+  </si>
+  <si>
+    <t>2212SFA01</t>
+  </si>
+  <si>
+    <t>2202SFH01</t>
+  </si>
+  <si>
+    <t>2130SFA02</t>
+  </si>
+  <si>
+    <t>1549CSD01</t>
+  </si>
+  <si>
+    <t>1540CCT02</t>
+  </si>
+  <si>
+    <t>1550CSH01</t>
+  </si>
+  <si>
+    <t>1509CKL02</t>
+  </si>
+  <si>
+    <t>1553CTU01</t>
+  </si>
+  <si>
+    <t>1551CPA01</t>
+  </si>
+  <si>
+    <t>1554CPR01</t>
+  </si>
+  <si>
+    <t>1552CLD01</t>
+  </si>
+  <si>
+    <t>3054SFA05</t>
+  </si>
+  <si>
+    <t>1520SFH05</t>
+  </si>
+  <si>
+    <t>3080SFH01</t>
+  </si>
+  <si>
+    <t>3077SWC01</t>
+  </si>
+  <si>
+    <t>3048SUN05</t>
+  </si>
+  <si>
+    <t>2204SBR01</t>
+  </si>
+  <si>
+    <t>2206SSE01</t>
+  </si>
+  <si>
+    <t>2207SSH01</t>
+  </si>
+  <si>
+    <t>2131SUN05</t>
+  </si>
+  <si>
+    <t>2208SSE01</t>
+  </si>
+  <si>
+    <t>2210SBA01</t>
+  </si>
+  <si>
+    <t>2214SFA01</t>
+  </si>
+  <si>
+    <t>2213CRA01</t>
+  </si>
+  <si>
+    <t>1555CCT01</t>
+  </si>
+  <si>
+    <t>1543CSH02</t>
+  </si>
+  <si>
+    <t>1556CSD01</t>
+  </si>
+  <si>
+    <t>1553CTU02</t>
+  </si>
+  <si>
+    <t>1483CCT03</t>
+  </si>
+  <si>
+    <t>1532CKL01</t>
+  </si>
+  <si>
+    <t>1557CJU01</t>
+  </si>
+  <si>
+    <t>1558CPR01</t>
+  </si>
+  <si>
+    <t>3042SFH05</t>
+  </si>
+  <si>
+    <t>3080SFH02</t>
+  </si>
+  <si>
+    <t>3063SBR04</t>
+  </si>
+  <si>
+    <t>3012SFH07</t>
+  </si>
+  <si>
+    <t>3074SSE02</t>
+  </si>
+  <si>
+    <t>2199SFA02</t>
+  </si>
+  <si>
+    <t>2212SFA02</t>
+  </si>
+  <si>
+    <t>2217SFH01</t>
+  </si>
+  <si>
+    <t>2218SFH01</t>
+  </si>
+  <si>
+    <t>2220SFT01</t>
+  </si>
+  <si>
+    <t>2178SUN03</t>
+  </si>
+  <si>
+    <t>2204SBR02</t>
+  </si>
+  <si>
+    <t>1550CSH02</t>
+  </si>
+  <si>
+    <t>1559CSD01</t>
+  </si>
+  <si>
+    <t>1461CSD05</t>
+  </si>
+  <si>
+    <t>1564CKI01</t>
+  </si>
+  <si>
+    <t>1560CCT01</t>
+  </si>
+  <si>
+    <t>1563CKL01</t>
+  </si>
+  <si>
+    <t>1561CLD01</t>
+  </si>
+  <si>
+    <t>1562CLS01</t>
+  </si>
+  <si>
+    <t>1565CPR01</t>
+  </si>
+  <si>
+    <t>3054SFA06</t>
+  </si>
+  <si>
+    <t>3082SFA01</t>
+  </si>
+  <si>
+    <t>3048SUN06</t>
+  </si>
+  <si>
+    <t>3042SFH06</t>
+  </si>
+  <si>
+    <t>3074SSE03</t>
+  </si>
+  <si>
+    <t>2222SFT01</t>
+  </si>
+  <si>
+    <t>2224SBR01</t>
+  </si>
+  <si>
+    <t>2178SUN04</t>
+  </si>
+  <si>
+    <t>2225SBA01</t>
+  </si>
+  <si>
+    <t>2208SSE02</t>
+  </si>
+  <si>
+    <t>2227SBR01</t>
+  </si>
+  <si>
+    <t>2214SFA02</t>
+  </si>
+  <si>
+    <t>2229CSF01</t>
+  </si>
+  <si>
+    <t>1549CSD02</t>
+  </si>
+  <si>
+    <t>1564CKI02</t>
+  </si>
+  <si>
+    <t>1566CLD01</t>
+  </si>
+  <si>
+    <t>1567CKI01</t>
+  </si>
+  <si>
+    <t>1568CCT01</t>
+  </si>
+  <si>
+    <t>1480CKL02</t>
+  </si>
+  <si>
+    <t>1562CLS02</t>
+  </si>
+  <si>
+    <t>1569CPR01</t>
+  </si>
+  <si>
+    <t>3087SFA01</t>
+  </si>
+  <si>
+    <t>3088SSH01</t>
+  </si>
+  <si>
+    <t>3061SSP04</t>
+  </si>
+  <si>
+    <t>3077SWC03</t>
+  </si>
+  <si>
+    <t>2115SSE05</t>
+  </si>
+  <si>
+    <t>2238SWC01</t>
+  </si>
+  <si>
+    <t>2239SFA01</t>
+  </si>
+  <si>
+    <t>2241SFA01</t>
+  </si>
+  <si>
+    <t>1932SFT07</t>
+  </si>
+  <si>
+    <t>2171SFH04</t>
+  </si>
+  <si>
+    <t>2131SUN06</t>
+  </si>
+  <si>
+    <t>2233SFA02</t>
+  </si>
+  <si>
+    <t>2139CRA02</t>
+  </si>
+  <si>
+    <t>3089SFA01</t>
+  </si>
+  <si>
+    <t>3077SWC02</t>
+  </si>
+  <si>
+    <t>3085SFT01</t>
+  </si>
+  <si>
+    <t>3073SBA02</t>
+  </si>
+  <si>
+    <t>2231SBA01</t>
+  </si>
+  <si>
+    <t>2171SFH03</t>
+  </si>
+  <si>
+    <t>2115SSE04</t>
+  </si>
+  <si>
+    <t>2244SSH01</t>
+  </si>
+  <si>
+    <t>2233SFA01</t>
+  </si>
+  <si>
+    <t>1932SFT06</t>
+  </si>
+  <si>
+    <t>2236SBR01</t>
+  </si>
+  <si>
+    <t>2123CRA02</t>
+  </si>
+  <si>
+    <t>No existe en CC</t>
+  </si>
+  <si>
+    <t>1046TSF05</t>
+  </si>
+  <si>
+    <t>1046TSF06</t>
+  </si>
+  <si>
+    <t>1046TSF07</t>
+  </si>
+  <si>
+    <t>1038TSL04</t>
+  </si>
+  <si>
+    <t>1038TSL05</t>
+  </si>
+  <si>
+    <t>1049TSS09</t>
+  </si>
+  <si>
+    <t>1049TSS05</t>
+  </si>
+  <si>
+    <t>1049TSS06</t>
+  </si>
+  <si>
+    <t>1049TSS07</t>
+  </si>
+  <si>
+    <t>1049TSS08</t>
+  </si>
+  <si>
+    <t>1976ASB01</t>
+  </si>
+  <si>
+    <t>1903ASB05</t>
+  </si>
+  <si>
+    <t>1986ASB01</t>
+  </si>
+  <si>
+    <t>1960ASB02</t>
+  </si>
+  <si>
+    <t>1779ASB09</t>
+  </si>
+  <si>
+    <t>1985ASB01</t>
+  </si>
+  <si>
+    <t>1760ASB12</t>
+  </si>
+  <si>
+    <t>1978ALM01</t>
+  </si>
+  <si>
+    <t>1923ALM18</t>
+  </si>
+  <si>
+    <t>1923ALM19</t>
+  </si>
+  <si>
+    <t>1998ALM01</t>
+  </si>
+  <si>
+    <t>1863ALM11</t>
+  </si>
+  <si>
+    <t>1863ALM10</t>
+  </si>
+  <si>
+    <t>1866ALM07</t>
+  </si>
+  <si>
+    <t>1983ASH01</t>
+  </si>
+  <si>
+    <t>1948ATT02</t>
+  </si>
+  <si>
+    <t>1994ATT01</t>
+  </si>
+  <si>
+    <t>1834ALY06</t>
+  </si>
+  <si>
+    <t>1916ALS07</t>
+  </si>
+  <si>
+    <t>1988ALS01</t>
+  </si>
+  <si>
+    <t>2001ASA01</t>
+  </si>
+  <si>
+    <t>2005ASA01</t>
+  </si>
+  <si>
+    <t>2000ASA01</t>
+  </si>
+  <si>
+    <t>1999AJG01</t>
+  </si>
+  <si>
+    <t>1996ASA01</t>
+  </si>
+  <si>
+    <t>1997AJG01</t>
+  </si>
+  <si>
+    <t>2006AJK01</t>
+  </si>
+  <si>
+    <t>2007ASH01</t>
+  </si>
+  <si>
+    <t>1976ASB02</t>
+  </si>
+  <si>
+    <t>1979ASB01</t>
+  </si>
+  <si>
+    <t>1986ASB02</t>
+  </si>
+  <si>
+    <t>1779ASB10</t>
+  </si>
+  <si>
+    <t>2004ASB01</t>
+  </si>
+  <si>
+    <t>1978ALM02</t>
+  </si>
+  <si>
+    <t>1923ALM20</t>
+  </si>
+  <si>
+    <t>1923ALM21</t>
+  </si>
+  <si>
+    <t>1975ALM01</t>
+  </si>
+  <si>
+    <t>1977ALM01</t>
+  </si>
+  <si>
+    <t>1822ALL08</t>
+  </si>
+  <si>
+    <t>1991AJG01</t>
+  </si>
+  <si>
+    <t>1983ASH02</t>
+  </si>
+  <si>
+    <t>1929ATT02</t>
+  </si>
+  <si>
+    <t>1981ATT01</t>
+  </si>
+  <si>
+    <t>1969AST02</t>
+  </si>
+  <si>
+    <t>1980AST01</t>
+  </si>
+  <si>
+    <t>1995AST01</t>
+  </si>
+  <si>
+    <t>1970ALS02</t>
+  </si>
+  <si>
+    <t>1834ALY07</t>
+  </si>
+  <si>
+    <t>2003ASA01</t>
+  </si>
+  <si>
+    <t>1972ASA03</t>
+  </si>
+  <si>
+    <t>2002ALY01</t>
+  </si>
+  <si>
+    <t>1984ASA02</t>
+  </si>
+  <si>
+    <t>1947AJG02</t>
+  </si>
+  <si>
+    <t>1976ASB03</t>
+  </si>
+  <si>
+    <t>1979ASB02</t>
+  </si>
+  <si>
+    <t>1985ASB02</t>
+  </si>
+  <si>
+    <t>1760ASB13</t>
+  </si>
+  <si>
+    <t>1987ASB01</t>
+  </si>
+  <si>
+    <t>1923ALM23</t>
+  </si>
+  <si>
+    <t>1923ALM22</t>
+  </si>
+  <si>
+    <t>1977ALM02</t>
+  </si>
+  <si>
+    <t>1825ALM07</t>
+  </si>
+  <si>
+    <t>1923ALC24</t>
+  </si>
+  <si>
+    <t>1992ASH01</t>
+  </si>
+  <si>
+    <t>1983ASH03</t>
+  </si>
+  <si>
+    <t>1849ATT03</t>
+  </si>
+  <si>
+    <t>1993ATT01</t>
+  </si>
+  <si>
+    <t>1989ATT01</t>
+  </si>
+  <si>
+    <t>1990AST01</t>
+  </si>
+  <si>
+    <t>1916ALS06</t>
+  </si>
+  <si>
+    <t>1950ALS03</t>
+  </si>
+  <si>
+    <t>1793ALY05</t>
+  </si>
+  <si>
+    <t>1982ASA01</t>
+  </si>
+  <si>
+    <t>1972ASA02</t>
+  </si>
+  <si>
+    <t>1984ASA01</t>
+  </si>
+  <si>
+    <t>1947AJG03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3390,13 +5384,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3411,8 +5425,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3695,13 +5721,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A773"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
@@ -7567,6 +9593,1608 @@
     <row r="773" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A773" t="s">
         <v>772</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735A7A5F-DE38-4BC9-B147-186087EAB35D}">
+  <dimension ref="A1:A62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:A62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CD90C9-DB5F-402F-BF6F-EEEE625547C7}">
+  <dimension ref="A1:A126"/>
+  <sheetViews>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F89988-B8D4-4656-9B90-EF23433EAC11}">
+  <dimension ref="A1:A37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71AC1CE6-CD69-43CD-9837-DE835C8A4441}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.7265625" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD4D307-793A-4B2F-9AA2-13514ED97604}">
+  <dimension ref="A1:B76"/>
+  <sheetViews>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="16.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1692</v>
       </c>
     </row>
   </sheetData>
@@ -7578,13 +11206,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A9E8D6-E003-4AFA-8800-3C0E3DF0F0A2}">
   <dimension ref="A1:A219"/>
   <sheetViews>
-    <sheetView topLeftCell="A199" workbookViewId="0">
-      <selection sqref="A1:A219"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.36328125" customWidth="1"/>
+    <col min="1" max="1" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
@@ -8688,646 +12317,3597 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CD90C9-DB5F-402F-BF6F-EEEE625547C7}">
-  <dimension ref="A1:A126"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F419A112-177C-46E8-8DC4-C7E951A6EFB9}">
+  <dimension ref="A1:A231"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="24.08984375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>992</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>993</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>994</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>995</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>996</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>997</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>998</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>999</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>1000</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1001</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1002</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>1003</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>1004</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>1005</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>1006</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>1007</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>1008</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>1009</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>1010</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>1011</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>1012</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>1013</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>1014</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>1015</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>1016</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>1017</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>1018</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>1019</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>1020</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>1021</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>1022</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>1023</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>1024</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>1025</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>1026</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>1027</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>1028</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>1029</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>1030</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>1031</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>1032</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>1033</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>1034</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>1035</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>1036</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>1037</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>1038</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>1039</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>1040</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>1041</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>1042</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>1043</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>1044</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>1045</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>1046</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>1047</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>1048</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>1049</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>1050</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>1051</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>1052</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>1053</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>1054</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>1055</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>1056</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>1057</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>1058</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>1059</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>1060</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>1061</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>1062</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>1063</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>1064</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>1065</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>1066</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>1067</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>1068</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>1069</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>1070</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>1071</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>1072</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>1073</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>1074</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>1075</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>1076</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>1077</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>1078</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>1079</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>1080</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>1081</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>1082</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>1083</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>1084</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>1085</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>1086</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>1087</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>1088</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>1089</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>1090</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>1091</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>1092</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>1093</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>1094</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>1095</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>1096</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>1097</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>1098</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>1099</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>1100</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>1101</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>1102</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>1103</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>1104</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>1105</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>1106</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>1107</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>1108</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>1109</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>1110</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>1111</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>1112</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>1113</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>1114</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>1115</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>1116</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>1117</v>
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E83E02C-D330-4CB2-9B0D-C92CDD8B7CD0}">
+  <dimension ref="A1:A171"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A138" s="1" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A140" s="1" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A142" s="1" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A143" s="1" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A144" s="1" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A145" s="1" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A146" s="1" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A147" s="1" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A148" s="1" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A149" s="1" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A150" s="1" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A151" s="1" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A152" s="1" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A153" s="1" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A154" s="1" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A155" s="1" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A156" s="1" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A157" s="1" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A158" s="1" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A159" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A160" s="1" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A161" s="1" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A162" s="1" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A163" s="1" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A164" s="1" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A165" s="1" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A166" s="1" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A167" s="3" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A168" s="1" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A169" s="1" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A170" s="1" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A171" s="1" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8CAF04-4CE2-4DA0-9888-00F7350BC2F5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2FC7C95-7A1F-4353-82FD-010EDF780D3E}">
+  <dimension ref="A1:B118"/>
+  <sheetViews>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7FD8C3-340D-440F-90A4-C7F935AF80FF}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8265A764-C296-4E0B-842B-158680FB32BB}">
+  <dimension ref="A1:A171"/>
+  <sheetViews>
+    <sheetView topLeftCell="A144" workbookViewId="0">
+      <selection sqref="A1:A171"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A138" s="1" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A140" s="1" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A142" s="1" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A143" s="1" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A144" s="1" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A145" s="1" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A146" s="1" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A147" s="1" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A148" s="1" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A149" s="1" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A150" s="1" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A151" s="1" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A152" s="1" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A153" s="1" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A154" s="1" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A155" s="1" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A156" s="1" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A157" s="1" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A158" s="1" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A159" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A160" s="1" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A161" s="1" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A162" s="1" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A163" s="1" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A164" s="1" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A165" s="1" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A166" s="1" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A167" s="3" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A168" s="1" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A169" s="1" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A170" s="1" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A171" s="1" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C02B0B-9987-4E68-A31D-1E933DBCC95D}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="23.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1583</v>
       </c>
     </row>
   </sheetData>
